--- a/test/brew-day-tst.xlsx
+++ b/test/brew-day-tst.xlsx
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">DATA</t>
+  </si>
   <si>
     <t xml:space="preserve">CASO DE TESTE</t>
   </si>
@@ -42,6 +45,65 @@
     <t xml:space="preserve">CT1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Name: William ; 
+Last Name: Fabian ; 
+Email address: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">williamfabianmv@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">; 
+Confirm Email address: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">williamfabianmv@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">; Password: 1234; 
+Confirm Password: 1234</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmação de Cadastro e retorno á tela inicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntegrityError at / register /</t>
+  </si>
+  <si>
     <t xml:space="preserve">Resultados Totalmente Correto e Esperado</t>
   </si>
   <si>
@@ -54,10 +116,68 @@
     <t xml:space="preserve">CT3</t>
   </si>
   <si>
+    <t xml:space="preserve">Name: William ; 
+Last Name: Fabian ; 
+Email address: williamfabianmv@gmail.com _x0001_; 
+Confirm Email address: williamfabianmv@gmail.com _x0001_;
+Password: (EM BRANCO); 
+Confirm Password: (EM BRANCO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema informar que o cadastro não pode ser realizado pois algum campo está faltando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password can't be blank </t>
+  </si>
+  <si>
     <t xml:space="preserve">Resultado Incorreto</t>
   </si>
   <si>
+    <t xml:space="preserve">CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email address: _x0001_williamfabianmv@gmail.com ; 
+Password: 1234; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abrir a tela principal da aplicação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid credentials</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sem resultado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email address: _x0001_will@gmail.com ; 
+Password: 1234; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aviso de e-mail inválido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuário editado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link não configurado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT9</t>
   </si>
 </sst>
 </file>
@@ -66,13 +186,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -91,21 +212,19 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -120,6 +239,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF37B70"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC2E0AE"/>
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
@@ -128,12 +253,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF9AE"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF37B70"/>
-        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -159,7 +278,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,64 +302,120 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Resultado" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Resultado2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Título" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Título1" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -310,84 +485,199 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="45.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" s="11" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>43082</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="F3" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="7" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="F5" s="8" t="s">
+    <row r="3" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>43082</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>43082</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>43082</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>43082</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>43082</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>43082</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -407,8 +697,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -421,7 +711,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -436,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -450,7 +740,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/test/brew-day-tst.xlsx
+++ b/test/brew-day-tst.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="1º Teste" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2º Teste" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -118,8 +117,8 @@
   <si>
     <t xml:space="preserve">Name: William ; 
 Last Name: Fabian ; 
-Email address: williamfabianmv@gmail.com _x0001_; 
-Confirm Email address: williamfabianmv@gmail.com _x0001_;
+Email address: williamfabianmv@gmail.com _x005F_x0001_; 
+Confirm Email address: williamfabianmv@gmail.com _x005F_x0001_;
 Password: (EM BRANCO); 
 Confirm Password: (EM BRANCO)</t>
   </si>
@@ -136,7 +135,7 @@
     <t xml:space="preserve">CT4</t>
   </si>
   <si>
-    <t xml:space="preserve">Email address: _x0001_williamfabianmv@gmail.com ; 
+    <t xml:space="preserve">Email address: _x005F_x0001_williamfabianmv@gmail.com ; 
 Password: 1234; </t>
   </si>
   <si>
@@ -152,7 +151,7 @@
     <t xml:space="preserve">CT5</t>
   </si>
   <si>
-    <t xml:space="preserve">Email address: _x0001_will@gmail.com ; 
+    <t xml:space="preserve">Email address: _x005F_x0001_will@gmail.com ; 
 Password: 1234; </t>
   </si>
   <si>
@@ -178,6 +177,214 @@
   </si>
   <si>
     <t xml:space="preserve">CT9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Name: will ; 
+Last Name: will ; 
+Email address: will@gmail.com; 
+Confirm Email address: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">will@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">; 
+Password: 000; 
+Confirm Password: 000</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Retorno á tela inicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema informar ocorrência de Usuário repetido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restrição UNIQUE falhou: auth_user.username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: William ; 
+Last Name: Fabian ; 
+Email address: williamfabianmv@gmail.com ; 
+Confirm Email address: williamfabianmv@gmail.com ;
+Password: (EM BRANCO); 
+Confirm Password: (EM BRANCO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email address: will@gmail.com ; 
+Password: 000; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi para a tela principal da aplicação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email address: williiii@gmail.com ; 
+Password: 000; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additives Name: corante
+Quantity: 1
+GRAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmação de adição e Ingrediente adicionado no banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro adicionado com sucesso mas sem confirmação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema informar ocorrência de Ingrediente repetido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hops Name: Columbus
+Quantit: (EM BRANCO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could not convert string to float: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrediente editado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema informar que o edição não pode ser realizado pois algum campo está faltando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrediente Deletado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmação de adição e Equipamento adicionado no banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmação de edição e Ingrediente editado no banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipamento Deletado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Recipes Name: Receita teste
+Type Brew: USER
+Malt: Malte Grao (kg)    Quantity: 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Hop: Lupulo Persa (gr)    Quantity: 1
+Additive:  corante (gr)    Quantity: 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmação de adição e Receita adicionado no banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Recipes Name: (EM BRANCO)
+Type Brew: USER
+Malt: Malte Grao (kg)    Quantity: 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Hop: Lupulo Persa (gr)    Quantity: 1
+Additive:  corante (gr)    Quantity: 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid literal for int() with base 10: '' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receita editado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receita Deletada</t>
   </si>
 </sst>
 </file>
@@ -303,7 +510,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,14 +555,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,10 +563,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,28 +579,68 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -487,7 +722,7 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -499,7 +734,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="45.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="45.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -526,7 +761,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" s="11" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>43082</v>
       </c>
@@ -563,8 +798,8 @@
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -572,20 +807,20 @@
       <c r="A4" s="5" t="n">
         <v>43082</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -593,20 +828,20 @@
       <c r="A5" s="5" t="n">
         <v>43082</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -614,70 +849,70 @@
       <c r="A6" s="5" t="n">
         <v>43082</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>43082</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="12"/>
+      <c r="E7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>43082</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -695,52 +930,489 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A8 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="45.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="will@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="will@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A8 A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/test/brew-day-tst.xlsx
+++ b/test/brew-day-tst.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -117,8 +117,8 @@
   <si>
     <t xml:space="preserve">Name: William ; 
 Last Name: Fabian ; 
-Email address: williamfabianmv@gmail.com _x005F_x0001_; 
-Confirm Email address: williamfabianmv@gmail.com _x005F_x0001_;
+Email address: williamfabianmv@gmail.com; 
+Confirm Email address: williamfabianmv@gmail.com;
 Password: (EM BRANCO); 
 Confirm Password: (EM BRANCO)</t>
   </si>
@@ -135,7 +135,7 @@
     <t xml:space="preserve">CT4</t>
   </si>
   <si>
-    <t xml:space="preserve">Email address: _x005F_x0001_williamfabianmv@gmail.com ; 
+    <t xml:space="preserve">Email address: williamfabianmv@gmail.com ; 
 Password: 1234; </t>
   </si>
   <si>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">CT5</t>
   </si>
   <si>
-    <t xml:space="preserve">Email address: _x005F_x0001_will@gmail.com ; 
+    <t xml:space="preserve">Email address: will@gmail.com ; 
 Password: 1234; </t>
   </si>
   <si>
@@ -173,45 +173,12 @@
     <t xml:space="preserve">CT7</t>
   </si>
   <si>
-    <t xml:space="preserve">CT8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Name: will ; 
+    <t xml:space="preserve">Name: will ; 
 Last Name: will ; 
 Email address: will@gmail.com; 
-Confirm Email address: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">will@gmail.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">; 
+Confirm Email address: will@gmail.com; 
 Password: 000; 
 Confirm Password: 000</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Retorno á tela inicial</t>
@@ -242,6 +209,9 @@
 Password: 000; </t>
   </si>
   <si>
+    <t xml:space="preserve">CT8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Additives Name: corante
 Quantity: 1
 GRAMS</t>
@@ -253,6 +223,9 @@
     <t xml:space="preserve">Registro adicionado com sucesso mas sem confirmação</t>
   </si>
   <si>
+    <t xml:space="preserve">CT9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sistema informar ocorrência de Ingrediente repetido</t>
   </si>
   <si>
@@ -287,6 +260,11 @@
     <t xml:space="preserve">C14</t>
   </si>
   <si>
+    <t xml:space="preserve">Filter Name: Barril
+Quantity: 2
+Litle(l)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Confirmação de adição e Equipamento adicionado no banco de dados</t>
   </si>
   <si>
@@ -296,6 +274,11 @@
     <t xml:space="preserve">C16</t>
   </si>
   <si>
+    <t xml:space="preserve">Filter Name: (EM BRANCO)
+Quantity: 2
+Litle(l)</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17</t>
   </si>
   <si>
@@ -314,27 +297,11 @@
     <t xml:space="preserve">C20</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Recipes Name: Receita teste
+    <t xml:space="preserve">Recipes Name: Receita teste
 Type Brew: USER
 Malt: Malte Grao (kg)    Quantity: 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Hop: Lupulo Persa (gr)    Quantity: 1
+Hop: Lupulo Persa (gr)    Quantity: 1
 Additive:  corante (gr)    Quantity: 1</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Confirmação de adição e Receita adicionado no banco de dados</t>
@@ -346,27 +313,11 @@
     <t xml:space="preserve">C22</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Recipes Name: (EM BRANCO)
+    <t xml:space="preserve">Recipes Name: (EM BRANCO)
 Type Brew: USER
 Malt: Malte Grao (kg)    Quantity: 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Hop: Lupulo Persa (gr)    Quantity: 1
+Hop: Lupulo Persa (gr)    Quantity: 1
 Additive:  corante (gr)    Quantity: 1</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">invalid literal for int() with base 10: '' </t>
@@ -385,6 +336,18 @@
   </si>
   <si>
     <t xml:space="preserve">Receita Deletada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmação de produção e Ingrediente subtraídos no banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aviso de falta de um ou mais ingredientes</t>
   </si>
 </sst>
 </file>
@@ -437,7 +400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,7 +410,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF37B70"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFF68E76"/>
       </patternFill>
     </fill>
     <fill>
@@ -466,6 +429,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7DA7D8"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF68E76"/>
+        <bgColor rgb="FFF37B70"/>
       </patternFill>
     </fill>
   </fills>
@@ -510,7 +479,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -591,14 +560,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,20 +580,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -691,7 +652,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFF9AE"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFF68E76"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -720,10 +681,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -898,22 +859,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -930,10 +875,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -975,38 +920,38 @@
       <c r="A2" s="5" t="n">
         <v>43110</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>34</v>
+      <c r="E2" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>43110</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>36</v>
+      <c r="E3" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="11" t="s">
@@ -1021,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
@@ -1042,13 +987,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="18" t="s">
@@ -1063,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>25</v>
@@ -1112,17 +1057,17 @@
       <c r="A9" s="5" t="n">
         <v>43110</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,16 +1075,16 @@
         <v>43110</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,7 +1131,7 @@
       <c r="C13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -1203,62 +1148,62 @@
       <c r="C14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>43110</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>43110</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="B16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>29</v>
+      <c r="E16" s="27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>43110</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="B17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>29</v>
+      <c r="E17" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,13 +1211,13 @@
         <v>43110</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>59</v>
+      <c r="D18" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>29</v>
@@ -1283,12 +1228,12 @@
         <v>43110</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -1300,13 +1245,13 @@
         <v>43110</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>62</v>
+      <c r="D20" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>29</v>
@@ -1316,17 +1261,17 @@
       <c r="A21" s="5" t="n">
         <v>43110</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>43</v>
+      <c r="C21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1334,16 +1279,16 @@
         <v>43110</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,68 +1296,107 @@
         <v>43110</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>69</v>
+      <c r="E23" s="29" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="32" t="s">
-        <v>70</v>
+      <c r="A24" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="32" t="s">
-        <v>72</v>
+      <c r="A25" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>59</v>
+      <c r="D25" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="32" t="s">
-        <v>73</v>
+      <c r="A26" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="will@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="will@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/test/brew-day-tst.xlsx
+++ b/test/brew-day-tst.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1º Teste" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="2º Teste" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="1º Teste" sheetId="1" r:id="rId1"/>
+    <sheet name="2º Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,27 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
-  <si>
-    <t xml:space="preserve">DATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASO DE TESTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dados Inseridos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado esperado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legenda:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>CASO DE TESTE</t>
+  </si>
+  <si>
+    <t>Dados Inseridos</t>
+  </si>
+  <si>
+    <t>Resultado esperado</t>
+  </si>
+  <si>
+    <t>Resultado Final</t>
+  </si>
+  <si>
+    <t>Legenda:</t>
+  </si>
+  <si>
+    <t>CT1</t>
   </si>
   <si>
     <r>
@@ -63,7 +62,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">williamfabianmv@gmail.com</t>
+      <t>williamfabianmv@gmail.com</t>
     </r>
     <r>
       <rPr>
@@ -83,7 +82,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">williamfabianmv@gmail.com</t>
+      <t>williamfabianmv@gmail.com</t>
     </r>
     <r>
       <rPr>
@@ -92,30 +91,30 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">; Password: 1234; 
+      <t>; Password: 1234; 
 Confirm Password: 1234</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Confirmação de Cadastro e retorno á tela inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntegrityError at / register /</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados Totalmente Correto e Esperado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado Correto mas não Ideal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: William ; 
+    <t>Confirmação de Cadastro e retorno á tela inicial</t>
+  </si>
+  <si>
+    <t>IntegrityError at / register /</t>
+  </si>
+  <si>
+    <t>Resultados Totalmente Correto e Esperado</t>
+  </si>
+  <si>
+    <t>CT2</t>
+  </si>
+  <si>
+    <t>Resultado Correto mas não Ideal</t>
+  </si>
+  <si>
+    <t>CT3</t>
+  </si>
+  <si>
+    <t>Name: William ; 
 Last Name: Fabian ; 
 Email address: williamfabianmv@gmail.com; 
 Confirm Email address: williamfabianmv@gmail.com;
@@ -123,57 +122,57 @@
 Confirm Password: (EM BRANCO)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistema informar que o cadastro não pode ser realizado pois algum campo está faltando</t>
+    <t>Sistema informar que o cadastro não pode ser realizado pois algum campo está faltando</t>
   </si>
   <si>
     <t xml:space="preserve">Password can't be blank </t>
   </si>
   <si>
-    <t xml:space="preserve">Resultado Incorreto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT4</t>
+    <t>Resultado Incorreto</t>
+  </si>
+  <si>
+    <t>CT4</t>
   </si>
   <si>
     <t xml:space="preserve">Email address: williamfabianmv@gmail.com ; 
 Password: 1234; </t>
   </si>
   <si>
-    <t xml:space="preserve">Abrir a tela principal da aplicação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem resultado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT5</t>
+    <t>Abrir a tela principal da aplicação</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Sem resultado</t>
+  </si>
+  <si>
+    <t>CT5</t>
   </si>
   <si>
     <t xml:space="preserve">Email address: will@gmail.com ; 
 Password: 1234; </t>
   </si>
   <si>
-    <t xml:space="preserve">Aviso de e-mail inválido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuário editado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link não configurado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: will ; 
+    <t>Aviso de e-mail inválido</t>
+  </si>
+  <si>
+    <t>CT6</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Usuário editado</t>
+  </si>
+  <si>
+    <t>Link não configurado</t>
+  </si>
+  <si>
+    <t>CT7</t>
+  </si>
+  <si>
+    <t>Name: will ; 
 Last Name: will ; 
 Email address: will@gmail.com; 
 Confirm Email address: will@gmail.com; 
@@ -181,16 +180,16 @@
 Confirm Password: 000</t>
   </si>
   <si>
-    <t xml:space="preserve">Retorno á tela inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informar ocorrência de Usuário repetido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restrição UNIQUE falhou: auth_user.username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: William ; 
+    <t>Retorno á tela inicial</t>
+  </si>
+  <si>
+    <t>Sistema informar ocorrência de Usuário repetido</t>
+  </si>
+  <si>
+    <t>Restrição UNIQUE falhou: auth_user.username</t>
+  </si>
+  <si>
+    <t>Name: William ; 
 Last Name: Fabian ; 
 Email address: williamfabianmv@gmail.com ; 
 Confirm Email address: williamfabianmv@gmail.com ;
@@ -202,118 +201,118 @@
 Password: 000; </t>
   </si>
   <si>
-    <t xml:space="preserve">Foi para a tela principal da aplicação</t>
+    <t>Foi para a tela principal da aplicação</t>
   </si>
   <si>
     <t xml:space="preserve">Email address: williiii@gmail.com ; 
 Password: 000; </t>
   </si>
   <si>
-    <t xml:space="preserve">CT8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additives Name: corante
+    <t>CT8</t>
+  </si>
+  <si>
+    <t>Additives Name: corante
 Quantity: 1
 GRAMS</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmação de adição e Ingrediente adicionado no banco de dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro adicionado com sucesso mas sem confirmação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informar ocorrência de Ingrediente repetido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hops Name: Columbus
+    <t>Confirmação de adição e Ingrediente adicionado no banco de dados</t>
+  </si>
+  <si>
+    <t>Registro adicionado com sucesso mas sem confirmação</t>
+  </si>
+  <si>
+    <t>CT9</t>
+  </si>
+  <si>
+    <t>Sistema informar ocorrência de Ingrediente repetido</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Hops Name: Columbus
 Quantit: (EM BRANCO)</t>
   </si>
   <si>
     <t xml:space="preserve">could not convert string to float: </t>
   </si>
   <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingrediente editado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informar que o edição não pode ser realizado pois algum campo está faltando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingrediente Deletado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter Name: Barril
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Ingrediente editado</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Sistema informar que o edição não pode ser realizado pois algum campo está faltando</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>Ingrediente Deletado</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>Filter Name: Barril
 Quantity: 2
 Litle(l)</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmação de adição e Equipamento adicionado no banco de dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter Name: (EM BRANCO)
+    <t>Confirmação de adição e Equipamento adicionado no banco de dados</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>Filter Name: (EM BRANCO)
 Quantity: 2
 Litle(l)</t>
   </si>
   <si>
-    <t xml:space="preserve">C17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmação de edição e Ingrediente editado no banco de dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipamento Deletado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recipes Name: Receita teste
+    <t>C17</t>
+  </si>
+  <si>
+    <t>Confirmação de edição e Ingrediente editado no banco de dados</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>Equipamento Deletado</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>Recipes Name: Receita teste
 Type Brew: USER
 Malt: Malte Grao (kg)    Quantity: 1
 Hop: Lupulo Persa (gr)    Quantity: 1
 Additive:  corante (gr)    Quantity: 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmação de adição e Receita adicionado no banco de dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recipes Name: (EM BRANCO)
+    <t>Confirmação de adição e Receita adicionado no banco de dados</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>Recipes Name: (EM BRANCO)
 Type Brew: USER
 Malt: Malte Grao (kg)    Quantity: 1
 Hop: Lupulo Persa (gr)    Quantity: 1
@@ -323,42 +322,47 @@
     <t xml:space="preserve">invalid literal for int() with base 10: '' </t>
   </si>
   <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receita editado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receita Deletada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmação de produção e Ingrediente subtraídos no banco de dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aviso de falta de um ou mais ingredientes</t>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>Receita editado</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>Receita Deletada</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>Confirmação de produção e Ingrediente subtraídos no banco de dados</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>Aviso de falta de um ou mais ingredientes</t>
+  </si>
+  <si>
+    <t>Remoção realizada</t>
+  </si>
+  <si>
+    <t>Clicar Opção "Remover"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -366,22 +370,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -400,7 +389,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,182 +426,160 @@
         <bgColor rgb="FFF37B70"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -671,36 +638,331 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="45.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -722,8 +984,8 @@
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>43082</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -743,8 +1005,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>43082</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -764,8 +1026,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>43082</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -785,8 +1047,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>43082</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -806,8 +1068,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>43082</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -824,8 +1086,8 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>43082</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -842,8 +1104,8 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>43082</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -860,10 +1122,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -871,30 +1132,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="45.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -916,8 +1174,8 @@
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>43110</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -937,8 +1195,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>43110</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -958,8 +1216,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>43110</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -979,8 +1237,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>43110</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1000,8 +1258,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>43110</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1018,8 +1276,8 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>43110</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1036,8 +1294,8 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>43110</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1053,8 +1311,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>43110</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -1070,8 +1328,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>43110</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1087,8 +1345,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>43110</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1104,8 +1362,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>43110</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -1121,8 +1379,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>43110</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -1138,8 +1396,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>43110</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -1155,8 +1413,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>43110</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -1172,8 +1430,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>43110</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -1189,8 +1447,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>43110</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -1206,8 +1464,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>43110</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -1223,8 +1481,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>43110</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -1240,8 +1498,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>43110</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -1257,8 +1515,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+    <row r="21" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>43110</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -1274,8 +1532,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+    <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>43110</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -1291,8 +1549,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+    <row r="23" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>43110</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -1308,8 +1566,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>43110</v>
       </c>
       <c r="B24" s="30" t="s">
@@ -1325,8 +1583,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>43110</v>
       </c>
       <c r="B25" s="30" t="s">
@@ -1342,25 +1600,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <v>43110</v>
-      </c>
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>43110</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="19" t="s">
+      <c r="C26" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+      <c r="E26" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>43110</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -1376,8 +1634,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>43110</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -1394,10 +1652,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
